--- a/assets/data/data_philipp.xlsx
+++ b/assets/data/data_philipp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipphocker/Documents/GitHub/running_analysis/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0661BBA-B20D-CE4A-83C5-3D7827F84BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC9D65-1928-6242-93C2-9B012DE2582C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" xr2:uid="{2E8F8C6C-0E17-C94C-A30E-7760BD043D00}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="29140" windowHeight="17240" xr2:uid="{2E8F8C6C-0E17-C94C-A30E-7760BD043D00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>elev_gain</t>
+  </si>
+  <si>
+    <t>avg_cadence</t>
+  </si>
+  <si>
+    <t>avg_heart_rate</t>
+  </si>
+  <si>
+    <t>1:05:05</t>
+  </si>
+  <si>
+    <t>0:37:17</t>
+  </si>
+  <si>
+    <t>1:31:10</t>
+  </si>
+  <si>
+    <t>1:36:34</t>
+  </si>
+  <si>
+    <t>1:21:18</t>
+  </si>
+  <si>
+    <t>1:01:09</t>
+  </si>
+  <si>
+    <t>1:35:41</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,13 +110,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +150,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA8170DE-5B2C-9F4A-B2CA-111B09B86381}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{AA8170DE-5B2C-9F4A-B2CA-111B09B86381}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A81B150A-17D6-7A4B-9B3D-01E762563D8E}" name="date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{489B3B24-4DC8-4C42-A68E-98F7522DA6C3}" name="time" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EA619ABC-6604-F343-A0F3-235079964724}" name="distance" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{54A6176F-4477-6F42-A236-3154F5D96E38}" name="elev_gain" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7DA226C9-FB3A-B541-94E4-4183A0A57ED4}" name="avg_cadence" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CCBBEDBA-AC18-5746-B92D-D9C851D84888}" name="avg_heart_rate" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +484,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD36AA0-8C1C-8C4A-B33F-C7A20C9431D8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>163</v>
+      </c>
+      <c r="F2" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.08</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>168</v>
+      </c>
+      <c r="F3" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="D4" s="4">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>160</v>
+      </c>
+      <c r="F5" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4">
+        <v>158</v>
+      </c>
+      <c r="F6" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.09</v>
+      </c>
+      <c r="D7" s="4">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>158</v>
+      </c>
+      <c r="F7" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12.89</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4">
+        <v>165</v>
+      </c>
+      <c r="F8" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>